--- a/train_tools/qna/Answer_data.xlsx
+++ b/train_tools/qna/Answer_data.xlsx
@@ -1,12 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
+  <bookViews>
+    <workbookView xWindow="390" yWindow="615" windowWidth="24495" windowHeight="11475"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Answer_data" sheetId="1" r:id="rId4"/>
+    <sheet name="Answer_data" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -37,71 +40,24 @@
     <t>메뉴판 주세요</t>
   </si>
   <si>
-    <t>메뉴판</t>
-  </si>
-  <si>
-    <t>메뉴판 이미지</t>
-  </si>
-  <si>
-    <t>메뉴 검색</t>
-  </si>
-  <si>
     <t>{B_FOOD}</t>
   </si>
   <si>
-    <t>{B_FOOD} 주문, {B_FOOD} 줘</t>
-  </si>
-  <si>
-    <t>{B_FOOD}에 대한 메뉴 검색결과 입니다. 
-옵션을 선택해주세요.</t>
-  </si>
-  <si>
-    <t>추가 옵션을 선택해주세요
-없으시다면 주문을 입력해주세요</t>
-  </si>
-  <si>
     <t>해당 메뉴{B_FOOD}관련 이미지</t>
   </si>
   <si>
-    <t>추천메뉴</t>
-  </si>
-  <si>
-    <t>{B_RECOMMEND}</t>
-  </si>
-  <si>
     <t>메뉴 추천부탁드립니다.</t>
   </si>
   <si>
-    <t>저희 가게의 {B_RECOMMEND}메뉴는 -- 입니다</t>
-  </si>
-  <si>
     <t>추천메뉴 이미지</t>
   </si>
   <si>
-    <t>쿠폰,  포인트, 결제</t>
-  </si>
-  <si>
     <t>{B_PAY}</t>
   </si>
   <si>
-    <t>{B_PAY} 결제</t>
-  </si>
-  <si>
-    <t>{B_PAY}에 관해 [결제/쿠폰/포인트] 중에 어떤 설명을 원하시나요?</t>
-  </si>
-  <si>
-    <t>{B_PAY}의 관한 [결제/쿠폰/포인트] 설명입니다</t>
-  </si>
-  <si>
     <t>원산지</t>
   </si>
   <si>
-    <t>원두, 원산지 어디야? 원두 어디꺼야?</t>
-  </si>
-  <si>
-    <t>커피 원두의 원산지 정보입니다.</t>
-  </si>
-  <si>
     <t>원두이미지</t>
   </si>
   <si>
@@ -111,105 +67,1438 @@
     <t>{B_FACILITY}</t>
   </si>
   <si>
-    <t>{B_FACILITY} 어디에요?, {B_FACILITY} 돼?</t>
-  </si>
-  <si>
-    <t>{B_FACILITY}에 대한 안내입니다.</t>
-  </si>
-  <si>
     <t>{B_FACILITY} 에 대한 안내 이미지</t>
   </si>
   <si>
     <t>영업시간</t>
   </si>
   <si>
-    <t>몇시에 끝나나요?, 영업시간이 언제까지인가요?</t>
-  </si>
-  <si>
-    <t>저희 카페 영업시간은 -- 입니다</t>
-  </si>
-  <si>
     <t>텀블러</t>
   </si>
   <si>
-    <t>텀블러에 담아주실수 있나요?, 텀블러 사용할게요</t>
-  </si>
-  <si>
-    <t>저희 카페 텀블러 관련 규정 입니다</t>
-  </si>
-  <si>
     <t>테이크아웃</t>
   </si>
   <si>
-    <t>테이크 아웃이요, 포장이요, 가져갈게요</t>
-  </si>
-  <si>
-    <t>저희 카페 테이크 아웃 관련 안내입니다</t>
-  </si>
-  <si>
     <t>주문취소</t>
   </si>
   <si>
     <t>주문 취소할게</t>
   </si>
   <si>
-    <t>취소하려는 {B_FOOD}의 상품의 주문번호를 입력해주세요</t>
-  </si>
-  <si>
     <t>주문이 취소되었습니다.</t>
   </si>
   <si>
-    <t>주문한 목록들 보여주어 취소할 내역 선택하게 하기</t>
+    <t>주문</t>
+  </si>
+  <si>
+    <t>추천메뉴 검색</t>
+  </si>
+  <si>
+    <t>결제, 할인, 쿠폰</t>
+  </si>
+  <si>
+    <t>원두의 원산지가 어떻게 되죠?</t>
+  </si>
+  <si>
+    <t>몇시에 끝나나요? 영업시간이 언제까지인가요?</t>
+  </si>
+  <si>
+    <t>텀블러에 담아주실수 있나요?, 텀블러 할인 있나요?</t>
+  </si>
+  <si>
+    <t>테이크아웃 할인 되나요?</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+      </rPr>
+      <t>메뉴판</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0563C1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+      </rPr>
+      <t>메뉴판</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0563C1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF0563C1"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+      </rPr>
+      <t>이미지</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+      </rPr>
+      <t>커피</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+      </rPr>
+      <t>원두의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+      </rPr>
+      <t>원산지</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+      </rPr>
+      <t>정보입니다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+      </rPr>
+      <t>시설에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> {B_FACILITY} </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+      </rPr>
+      <t>대한</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+      </rPr>
+      <t>안내입니다</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+      </rPr>
+      <t>영업시간은</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> -- </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+      </rPr>
+      <t>입니다</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+      </rPr>
+      <t>텀블러</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+      </rPr>
+      <t>규정</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+      </rPr>
+      <t>입니다</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>{B_FOOD}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>이</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>뭐에요</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">?, {B_FOOD} </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>주세요</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>?</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>테이크</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>아웃</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>설명입니다</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>해당</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> {B_FOOD}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>주문번호입력해주세요</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>주문한</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>목록들</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>보여주어</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>취소할</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>내역</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>선택하게</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>하기</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>{B_RECOMMEND}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+      </rPr>
+      <t>메뉴는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+      </rPr>
+      <t>아래와</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+      </rPr>
+      <t>같습니다</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수량을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>선택해주세요</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>[ ex)1~ ]</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>결제</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>쿠폰</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>포인트</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">] </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>설명입니다</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">{B_FACILITY} </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>어디</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>있나요</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>?</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{B_PAY}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>사용</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>가능할까요</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>?</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{B_PAY}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+      </rPr>
+      <t>에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+      </rPr>
+      <t>관한</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+      </rPr>
+      <t>결제</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+      </rPr>
+      <t>할인</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+      </rPr>
+      <t>쿠폰</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+      </rPr>
+      <t>중</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+      </rPr>
+      <t>어떤</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+      </rPr>
+      <t>설명을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+      </rPr>
+      <t>원하시나요</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>?</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>추가</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>옵션을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>선택해주세요</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+없으시다면</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>입력해주세요</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">0 = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">옵션없음
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">                    1 = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">샷추가
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">                    2 = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">시럽추가
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">                    3 = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">사이즈업
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">                    4 = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>샷</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">시럽추가
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">                    5 = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>샷</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">사이즈업
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">                    6 = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>시럽</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">사이즈업
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">                    7 = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>샷</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>시럽</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>사이즈업</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="13">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="&quot;Malgun Gothic&quot;"/>
     </font>
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
-      <color theme="1"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12.0"/>
-      <color theme="1"/>
-      <name val="&quot;Malgun Gothic&quot;"/>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12.0"/>
-      <color rgb="FF0563C1"/>
-      <name val="&quot;Malgun Gothic&quot;"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
     <font>
-      <sz val="12.0"/>
-      <color theme="1"/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF0563C1"/>
+      <name val="Malgun Gothic"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Malgun Gothic"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF0563C1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -223,9 +1512,21 @@
         <bgColor rgb="FFF3F3F3"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF3F3F3"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
-    <border/>
+  <borders count="8">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -239,53 +1540,151 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="thick">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="12">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" vertical="bottom"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -475,28 +1874,33 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="17.38"/>
-    <col customWidth="1" min="2" max="2" width="15.63"/>
-    <col customWidth="1" min="3" max="3" width="44.25"/>
-    <col customWidth="1" min="4" max="4" width="52.75"/>
-    <col customWidth="1" min="5" max="5" width="41.38"/>
-    <col customWidth="1" min="6" max="6" width="45.75"/>
+    <col min="1" max="1" width="17.42578125" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" customWidth="1"/>
+    <col min="3" max="3" width="44.28515625" customWidth="1"/>
+    <col min="4" max="4" width="52.7109375" customWidth="1"/>
+    <col min="5" max="5" width="53.28515625" customWidth="1"/>
+    <col min="6" max="6" width="45.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -516,175 +1920,180 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="4" t="s">
+      <c r="B2" s="5"/>
+      <c r="C2" s="5" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="2"/>
+      <c r="F2" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A3" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="6" t="s">
+      <c r="C3" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="F3" s="7" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="2" t="s">
+    <row r="4" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A4" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="D4" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="4" t="s">
+    </row>
+    <row r="5" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A5" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="C5" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" s="7"/>
+    </row>
+    <row r="6" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A6" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="B6" s="8"/>
+      <c r="C6" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="2" t="s">
+    </row>
+    <row r="7" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A7" s="6" t="s">
         <v>15</v>
       </c>
+      <c r="B7" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="7" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="4">
-      <c r="A4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="4" t="s">
+    <row r="8" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A8" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="B8" s="8"/>
+      <c r="C8" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="7"/>
+    </row>
+    <row r="9" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A9" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="2" t="s">
+      <c r="B9" s="8"/>
+      <c r="C9" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" s="7"/>
+    </row>
+    <row r="10" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A10" s="6" t="s">
         <v>20</v>
       </c>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="F10" s="7"/>
     </row>
-    <row r="5">
-      <c r="A5" s="2" t="s">
+    <row r="11" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A11" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B11" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="D11" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="F5" s="2"/>
+      <c r="F11" s="7" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="6">
-      <c r="A6" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E7" s="4"/>
-      <c r="F7" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="E8" s="3"/>
-      <c r="F8" s="2"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="E9" s="3"/>
-      <c r="F9" s="2"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="2"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="E11" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="F11" s="2" t="s">
+    <row r="14" spans="1:6" ht="15.75" customHeight="1">
+      <c r="E14" s="11" t="s">
         <v>48</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/train_tools/qna/Answer_data.xlsx
+++ b/train_tools/qna/Answer_data.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25225"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DevRoot\chatbot\Chatbot_FG\train_tools\qna\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{865DB9AB-82D5-4894-BEE9-5DA745B74CCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="615" windowWidth="24495" windowHeight="11475"/>
+    <workbookView xWindow="2952" yWindow="288" windowWidth="20508" windowHeight="11136" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Answer_data" sheetId="1" r:id="rId1"/>
@@ -1040,116 +1046,15 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>추가</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>옵션을</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>선택해주세요</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t xml:space="preserve">
-없으시다면</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>을</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>입력해주세요</t>
-    </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">0 = </t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
         <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
       </rPr>
       <t xml:space="preserve">옵션없음
 </t>
@@ -1159,6 +1064,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">                    1 = </t>
@@ -1167,10 +1073,9 @@
       <rPr>
         <sz val="10"/>
         <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
       </rPr>
       <t xml:space="preserve">샷추가
 </t>
@@ -1180,6 +1085,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">                    2 = </t>
@@ -1188,10 +1094,9 @@
       <rPr>
         <sz val="10"/>
         <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
       </rPr>
       <t xml:space="preserve">시럽추가
 </t>
@@ -1201,6 +1106,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">                    3 = </t>
@@ -1209,10 +1115,9 @@
       <rPr>
         <sz val="10"/>
         <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
       </rPr>
       <t xml:space="preserve">사이즈업
 </t>
@@ -1222,6 +1127,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">                    4 = </t>
@@ -1230,30 +1136,29 @@
       <rPr>
         <sz val="10"/>
         <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>샷</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>샷</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <scheme val="minor"/>
-      </rPr>
       <t xml:space="preserve"> + </t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
         <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
       </rPr>
       <t xml:space="preserve">시럽추가
 </t>
@@ -1263,6 +1168,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">                    5 = </t>
@@ -1271,30 +1177,29 @@
       <rPr>
         <sz val="10"/>
         <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>샷</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>샷</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <scheme val="minor"/>
-      </rPr>
       <t xml:space="preserve"> + </t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
         <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
       </rPr>
       <t xml:space="preserve">사이즈업
 </t>
@@ -1304,6 +1209,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">                    6 = </t>
@@ -1312,30 +1218,29 @@
       <rPr>
         <sz val="10"/>
         <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>시럽</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>시럽</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <scheme val="minor"/>
-      </rPr>
       <t xml:space="preserve"> + </t>
     </r>
     <r>
       <rPr>
         <sz val="10"/>
         <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
       </rPr>
       <t xml:space="preserve">사이즈업
 </t>
@@ -1345,6 +1250,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">                    7 = </t>
@@ -1353,52 +1259,387 @@
       <rPr>
         <sz val="10"/>
         <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>샷</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </rPr>
+      <t xml:space="preserve"> + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>시럽</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>사이즈업</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>추가</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>옵션을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>선택해주세요
+없으시다면</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">입력해주세요
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">1 = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>샷추가</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+2 = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>시럽추가</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+3 = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>사이즈업</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+4 = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
       <t>샷</t>
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <scheme val="minor"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
       </rPr>
       <t xml:space="preserve"> + </t>
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>시럽추가</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+5 = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>샷</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>사이즈업</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+6 = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
       </rPr>
       <t>시럽</t>
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <scheme val="minor"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
       </rPr>
       <t xml:space="preserve"> + </t>
     </r>
     <r>
       <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">사이즈업
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">7 = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>샷</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>시럽</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
       </rPr>
       <t>사이즈업</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t xml:space="preserve">
+추가하실 메뉴가 있으신가요?</t>
     </r>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1406,8 +1647,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="16">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1485,12 +1726,31 @@
       <charset val="129"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <name val="맑은 고딕"/>
       <family val="3"/>
       <charset val="129"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="5">
@@ -1663,10 +1923,10 @@
     <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1678,6 +1938,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1880,24 +2143,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="17.42578125" customWidth="1"/>
-    <col min="2" max="2" width="15.5703125" customWidth="1"/>
-    <col min="3" max="3" width="44.28515625" customWidth="1"/>
-    <col min="4" max="4" width="52.7109375" customWidth="1"/>
-    <col min="5" max="5" width="53.28515625" customWidth="1"/>
-    <col min="6" max="6" width="45.7109375" customWidth="1"/>
+    <col min="1" max="1" width="17.44140625" customWidth="1"/>
+    <col min="2" max="2" width="15.5546875" customWidth="1"/>
+    <col min="3" max="3" width="44.33203125" customWidth="1"/>
+    <col min="4" max="4" width="52.6640625" customWidth="1"/>
+    <col min="5" max="5" width="53.33203125" customWidth="1"/>
+    <col min="6" max="6" width="45.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
@@ -1949,8 +2212,8 @@
       <c r="D3" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="E3" s="10" t="s">
-        <v>47</v>
+      <c r="E3" s="11" t="s">
+        <v>48</v>
       </c>
       <c r="F3" s="7" t="s">
         <v>9</v>
@@ -2087,8 +2350,8 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="15.75" customHeight="1">
-      <c r="E14" s="11" t="s">
-        <v>48</v>
+      <c r="E14" s="10" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/train_tools/qna/Answer_data.xlsx
+++ b/train_tools/qna/Answer_data.xlsx
@@ -230,53 +230,6 @@
         <rFont val="Malgun Gothic"/>
         <family val="3"/>
       </rPr>
-      <t>시설에</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> {B_FACILITY} </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-      </rPr>
-      <t>대한</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-      </rPr>
-      <t>안내입니다</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-      </rPr>
       <t>영업시간은</t>
     </r>
     <r>
@@ -1142,6 +1095,22 @@
       </rPr>
       <t>입력해주세요</t>
     </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">시설 안내입니다
+저희 카페 화장실은 정문 우측에 있는 계단으로 올라가서 복도 끝에 있습니다.
+비밀번호: 123456
+카페 와이파이
+wifi: cafe_fg_wifi
+비밀번호: 0123456789
+매장정보
+이름: 카페 FG
+주소: 736-7 역삼동, 강남구, 서울
+전화번호: 02-538-0000
+대표: FG
+오픈 날짜: 2022년 6월 1일
+</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1260,7 +1229,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -1270,106 +1239,175 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000"/>
+        <color theme="0" tint="-0.14999847407452621"/>
       </left>
       <right style="thin">
-        <color rgb="FF000000"/>
+        <color theme="0" tint="-0.14999847407452621"/>
       </right>
       <top style="thin">
-        <color rgb="FF000000"/>
+        <color theme="0" tint="-0.14999847407452621"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFCCCCCC"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
+        <color theme="0" tint="-0.14999847407452621"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color rgb="FFCCCCCC"/>
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
       </left>
       <right style="medium">
-        <color rgb="FFCCCCCC"/>
+        <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
       </top>
-      <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color rgb="FFCCCCCC"/>
+        <color indexed="64"/>
       </left>
-      <right style="thick">
-        <color rgb="FF000000"/>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
       </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
       </top>
       <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thick">
-        <color rgb="FF000000"/>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
       </left>
       <right style="medium">
-        <color rgb="FFCCCCCC"/>
+        <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
+      <top style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
       </top>
       <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color rgb="FFCCCCCC"/>
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
       </left>
       <right style="medium">
-        <color rgb="FFCCCCCC"/>
+        <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.14999847407452621"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="medium">
-        <color rgb="FFCCCCCC"/>
+        <color indexed="64"/>
       </left>
-      <right style="thick">
+      <right style="thin">
         <color rgb="FF000000"/>
       </right>
       <top style="medium">
-        <color rgb="FFCCCCCC"/>
+        <color indexed="64"/>
       </top>
       <bottom style="medium">
-        <color rgb="FFCCCCCC"/>
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1377,50 +1415,72 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1643,7 +1703,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1657,193 +1717,193 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="23" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A2" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5" t="s">
+      <c r="B2" s="18"/>
+      <c r="C2" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="9" t="s">
+      <c r="E2" s="19"/>
+      <c r="F2" s="20" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="132" customHeight="1" thickBot="1">
-      <c r="A3" s="11" t="s">
+    <row r="3" spans="1:6" ht="132" customHeight="1">
+      <c r="A3" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="E3" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="F3" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A4" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="17.25" customHeight="1">
+      <c r="A5" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F5" s="12"/>
+    </row>
+    <row r="6" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A6" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="3"/>
+      <c r="F6" s="12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="310.5">
+      <c r="A7" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="F3" s="15" t="s">
-        <v>9</v>
+      <c r="E7" s="8"/>
+      <c r="F7" s="12" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A4" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="7" t="s">
-        <v>11</v>
-      </c>
+    <row r="8" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A8" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="3"/>
+      <c r="F8" s="12"/>
     </row>
-    <row r="5" spans="1:6" ht="17.25" customHeight="1" thickBot="1">
-      <c r="A5" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F5" s="7"/>
+    <row r="9" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A9" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="3"/>
+      <c r="F9" s="12"/>
     </row>
-    <row r="6" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A6" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A7" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="E7" s="2"/>
-      <c r="F7" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A8" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="7"/>
-    </row>
-    <row r="9" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A9" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" s="8" t="s">
+    <row r="10" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A10" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="7"/>
-    </row>
-    <row r="10" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A10" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="7"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="12"/>
     </row>
     <row r="11" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" s="16" t="s">
         <v>38</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="15.75" customHeight="1">
-      <c r="E14" s="10"/>
+      <c r="E14" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>

--- a/train_tools/qna/Answer_data.xlsx
+++ b/train_tools/qna/Answer_data.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="2955" yWindow="285" windowWidth="20505" windowHeight="11130"/>
   </bookViews>
   <sheets>
-    <sheet name="Answer_data" sheetId="1" r:id="rId1"/>
+    <sheet name="Answer_data" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -560,7 +560,7 @@
       </rPr>
       <t>같습니다</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -633,7 +633,7 @@
       </rPr>
       <t>설명입니다</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -677,7 +677,7 @@
       </rPr>
       <t>?</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -721,7 +721,7 @@
       </rPr>
       <t>?</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -889,7 +889,7 @@
       </rPr>
       <t>?</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -905,19 +905,7 @@
       </rPr>
       <t>주세요</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>추가 옵션을 선택해주세요
-없으시다면 0을 입력해주세요
-1 = 샷추가
-2 = 시럽추가
-3 = 사이즈업
-4 = 샷 + 시럽추가
-5 = 샷 + 사이즈업
-6 = 시럽 + 사이즈업
-7 = 샷 + 시럽 + 사이즈업</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -982,7 +970,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t xml:space="preserve"> '</t>
+      <t xml:space="preserve"> &lt;</t>
     </r>
     <r>
       <rPr>
@@ -1002,7 +990,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>'</t>
+      <t>&gt;</t>
     </r>
     <r>
       <rPr>
@@ -1043,7 +1031,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t xml:space="preserve"> '</t>
+      <t xml:space="preserve"> &lt;</t>
     </r>
     <r>
       <rPr>
@@ -1063,7 +1051,7 @@
         <family val="3"/>
         <charset val="129"/>
       </rPr>
-      <t>'</t>
+      <t>&gt;</t>
     </r>
     <r>
       <rPr>
@@ -1095,10 +1083,10 @@
       </rPr>
       <t>입력해주세요</t>
     </r>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">시설 안내입니다
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>시설 안내입니다
 저희 카페 화장실은 정문 우측에 있는 계단으로 올라가서 복도 끝에 있습니다.
 비밀번호: 123456
 카페 와이파이
@@ -1109,16 +1097,27 @@
 주소: 736-7 역삼동, 강남구, 서울
 전화번호: 02-538-0000
 대표: FG
-오픈 날짜: 2022년 6월 1일
-</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+오픈 날짜: 2022년 6월 1일</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>추가 옵션을 선택해주세요
+없으시다면 0을 입력해주세요
+1 = 샷추가
+2 = 시럽추가
+3 = 사이즈업
+4 = 샷 + 시럽추가
+5 = 샷 + 사이즈업
+6 = 시럽 + 사이즈업
+7 = 샷 + 시럽 + 사이즈업</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13">
+  <fonts count="12">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1136,13 +1135,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
@@ -1415,62 +1407,59 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1697,217 +1686,210 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="17.42578125" customWidth="1"/>
-    <col min="2" max="2" width="15.5703125" customWidth="1"/>
-    <col min="3" max="3" width="44.28515625" customWidth="1"/>
-    <col min="4" max="4" width="60.7109375" customWidth="1"/>
-    <col min="5" max="5" width="53.28515625" customWidth="1"/>
-    <col min="6" max="6" width="45.7109375" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="23.42578125" customWidth="1"/>
+    <col min="3" max="3" width="31.5703125" customWidth="1"/>
+    <col min="4" max="4" width="68.85546875" customWidth="1"/>
+    <col min="5" max="5" width="83.7109375" customWidth="1"/>
+    <col min="6" max="6" width="46.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:6" ht="16.5" thickBot="1">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="F1" s="22" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A2" s="17" t="s">
+    <row r="2" spans="1:6" ht="34.5">
+      <c r="A2" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18" t="s">
+      <c r="B2" s="17"/>
+      <c r="C2" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="E2" s="19"/>
-      <c r="F2" s="20" t="s">
+      <c r="E2" s="18"/>
+      <c r="F2" s="19" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="132" customHeight="1">
-      <c r="A3" s="10" t="s">
+    <row r="3" spans="1:6" ht="399">
+      <c r="A3" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="F3" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="100.5">
+      <c r="A4" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="136.5">
+      <c r="A5" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F5" s="11"/>
+    </row>
+    <row r="6" spans="1:6" ht="86.25">
+      <c r="A6" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="409.5">
+      <c r="A7" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="F3" s="11" t="s">
-        <v>9</v>
+      <c r="E7" s="7"/>
+      <c r="F7" s="11" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A4" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="12" t="s">
-        <v>11</v>
-      </c>
+    <row r="8" spans="1:6" ht="111">
+      <c r="A8" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="11"/>
     </row>
-    <row r="5" spans="1:6" ht="17.25" customHeight="1">
-      <c r="A5" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="F5" s="12"/>
+    <row r="9" spans="1:6" ht="111">
+      <c r="A9" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" s="11"/>
     </row>
-    <row r="6" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A6" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="12" t="s">
-        <v>14</v>
-      </c>
+    <row r="10" spans="1:6" ht="63">
+      <c r="A10" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="F10" s="11"/>
     </row>
-    <row r="7" spans="1:6" ht="310.5">
-      <c r="A7" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="E7" s="8"/>
-      <c r="F7" s="12" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A8" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E8" s="3"/>
-      <c r="F8" s="12"/>
-    </row>
-    <row r="9" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A9" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E9" s="3"/>
-      <c r="F9" s="12"/>
-    </row>
-    <row r="10" spans="1:6" ht="15.75" customHeight="1">
-      <c r="A10" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="12"/>
-    </row>
-    <row r="11" spans="1:6" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A11" s="13" t="s">
+    <row r="11" spans="1:6" ht="109.5" thickBot="1">
+      <c r="A11" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C11" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="14" t="s">
+      <c r="D11" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="E11" s="15" t="s">
+      <c r="E11" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="F11" s="16" t="s">
+      <c r="F11" s="15" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" ht="15.75" customHeight="1">
-      <c r="E14" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/train_tools/qna/Answer_data.xlsx
+++ b/train_tools/qna/Answer_data.xlsx
@@ -61,24 +61,12 @@
     <t>원두이미지</t>
   </si>
   <si>
-    <t>시설 / 위치</t>
-  </si>
-  <si>
     <t>{B_FACILITY}</t>
   </si>
   <si>
     <t>{B_FACILITY} 에 대한 안내 이미지</t>
   </si>
   <si>
-    <t>영업시간</t>
-  </si>
-  <si>
-    <t>텀블러</t>
-  </si>
-  <si>
-    <t>테이크아웃</t>
-  </si>
-  <si>
     <t>주문취소</t>
   </si>
   <si>
@@ -86,15 +74,6 @@
   </si>
   <si>
     <t>주문이 취소되었습니다.</t>
-  </si>
-  <si>
-    <t>주문</t>
-  </si>
-  <si>
-    <t>추천메뉴 검색</t>
-  </si>
-  <si>
-    <t>결제, 할인, 쿠폰</t>
   </si>
   <si>
     <t>원두의 원산지가 어떻게 되죠?</t>
@@ -1110,6 +1089,137 @@
 5 = 샷 + 사이즈업
 6 = 시럽 + 사이즈업
 7 = 샷 + 시럽 + 사이즈업</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>주문</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>추천메뉴</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>검색</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>결제</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>할인</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>쿠폰</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>시설</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> / </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>위치</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>영업시간</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>텀블러</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>테이크아웃</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1407,7 +1517,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1470,6 +1580,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1689,7 +1805,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1722,7 +1838,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="34.5">
+    <row r="2" spans="1:6" ht="17.25">
       <c r="A2" s="16" t="s">
         <v>6</v>
       </c>
@@ -1731,165 +1847,166 @@
         <v>7</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="E2" s="18"/>
       <c r="F2" s="19" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="399">
-      <c r="A3" s="9" t="s">
-        <v>24</v>
+    <row r="3" spans="1:6" ht="128.25">
+      <c r="A3" s="24" t="s">
+        <v>41</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="F3" s="10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="100.5">
+    <row r="4" spans="1:6" ht="17.25">
       <c r="A4" s="8" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="11" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="136.5">
+    <row r="5" spans="1:6" ht="17.25">
       <c r="A5" s="8" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="F5" s="11"/>
     </row>
-    <row r="6" spans="1:6" ht="86.25">
+    <row r="6" spans="1:6" ht="17.25">
       <c r="A6" s="8" t="s">
         <v>13</v>
       </c>
       <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="11" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="409.5">
+    <row r="7" spans="1:6" ht="293.25">
       <c r="A7" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>16</v>
-      </c>
       <c r="C7" s="3" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="E7" s="7"/>
       <c r="F7" s="11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="111">
-      <c r="A8" s="8" t="s">
-        <v>18</v>
+    <row r="8" spans="1:6" ht="32.25">
+      <c r="A8" s="23" t="s">
+        <v>45</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="11"/>
     </row>
-    <row r="9" spans="1:6" ht="111">
-      <c r="A9" s="8" t="s">
-        <v>19</v>
+    <row r="9" spans="1:6" ht="32.25">
+      <c r="A9" s="23" t="s">
+        <v>46</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="11"/>
     </row>
-    <row r="10" spans="1:6" ht="63">
-      <c r="A10" s="8" t="s">
-        <v>20</v>
+    <row r="10" spans="1:6" ht="15.75">
+      <c r="A10" s="23" t="s">
+        <v>47</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="11"/>
     </row>
-    <row r="11" spans="1:6" ht="109.5" thickBot="1">
+    <row r="11" spans="1:6" ht="32.25" thickBot="1">
       <c r="A11" s="12" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B11" s="13" t="s">
         <v>8</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="F11" s="15" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/train_tools/qna/Answer_data.xlsx
+++ b/train_tools/qna/Answer_data.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="46">
   <si>
     <t>의도(Intent)</t>
   </si>
@@ -49,9 +49,6 @@
     <t>{B_FACILITY}</t>
   </si>
   <si>
-    <t>{B_FACILITY} 에 대한 안내 이미지</t>
-  </si>
-  <si>
     <t>주문취소</t>
   </si>
   <si>
@@ -71,9 +68,6 @@
   </si>
   <si>
     <t>메뉴판</t>
-  </si>
-  <si>
-    <t>menupan.JPG</t>
   </si>
   <si>
     <t>주문</t>
@@ -94,9 +88,6 @@
 7 = 샷 + 시럽 + 사이즈업</t>
   </si>
   <si>
-    <t>IMG_1510908858613.png</t>
-  </si>
-  <si>
     <t>추천메뉴</t>
   </si>
   <si>
@@ -109,9 +100,6 @@
   </si>
   <si>
     <t>{B_RECOMMEND}메뉴는 아래와 같습니다</t>
-  </si>
-  <si>
-    <t>IMG_1610951015385.png</t>
   </si>
   <si>
     <t>결제, 쿠폰, 포인트</t>
@@ -192,6 +180,12 @@
   </si>
   <si>
     <t>해당 {B_FOOD}의 주문번호를 입력해주세요</t>
+  </si>
+  <si>
+    <t>PrintedMenus.png</t>
+  </si>
+  <si>
+    <t>coupon.png</t>
   </si>
   <si>
     <r>
@@ -636,7 +630,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -669,9 +663,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -958,165 +949,161 @@
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>17</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>18</v>
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="8" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="136.5" thickBot="1">
       <c r="A3" s="9" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>23</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="F3" s="13"/>
     </row>
     <row r="4" spans="1:6" ht="48" thickBot="1">
       <c r="A4" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4" s="13"/>
-      <c r="F4" s="12" t="s">
-        <v>28</v>
-      </c>
+      <c r="E4" s="12"/>
+      <c r="F4" s="13"/>
     </row>
     <row r="5" spans="1:6" ht="48" thickBot="1">
       <c r="A5" s="9" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B5" s="10" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="F5" s="14"/>
+        <v>28</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="6" spans="1:6" ht="64.5" thickBot="1">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="13"/>
+      <c r="B6" s="12"/>
       <c r="C6" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="D6" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="E6" s="13"/>
-      <c r="F6" s="12" t="s">
-        <v>35</v>
+        <v>29</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" s="12"/>
+      <c r="F6" s="13" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="294" thickBot="1">
       <c r="A7" s="9" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B7" s="10" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="D7" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="E7" s="13"/>
-      <c r="F7" s="12" t="s">
-        <v>11</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="12"/>
+      <c r="F7" s="13"/>
     </row>
     <row r="8" spans="1:6" ht="138.75" thickBot="1">
-      <c r="A8" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="B8" s="13"/>
+      <c r="A8" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="12"/>
       <c r="C8" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="E8" s="13"/>
-      <c r="F8" s="14"/>
+        <v>14</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="12"/>
+      <c r="F8" s="13"/>
     </row>
     <row r="9" spans="1:6" ht="33" thickBot="1">
-      <c r="A9" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="B9" s="13"/>
+      <c r="A9" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="12"/>
       <c r="C9" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="E9" s="13"/>
-      <c r="F9" s="14"/>
+        <v>15</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="12"/>
+      <c r="F9" s="13"/>
     </row>
     <row r="10" spans="1:6" ht="79.5" thickBot="1">
-      <c r="A10" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="B10" s="13"/>
+      <c r="A10" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="12"/>
       <c r="C10" s="10" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="E10" s="13"/>
-      <c r="F10" s="14"/>
+        <v>41</v>
+      </c>
+      <c r="E10" s="12"/>
+      <c r="F10" s="13"/>
     </row>
     <row r="11" spans="1:6" ht="16.5" thickBot="1">
-      <c r="A11" s="17" t="s">
+      <c r="A11" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="18" t="s">
+      <c r="D11" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="E11" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="F11" s="21"/>
+      <c r="F11" s="20"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/train_tools/qna/Answer_data.xlsx
+++ b/train_tools/qna/Answer_data.xlsx
@@ -77,17 +77,6 @@
 {B_FOOD} 주문, {B_FOOD} 줘</t>
   </si>
   <si>
-    <t>추가 옵션을 선택해주세요
-없으시다면 0을 입력해주세요
-1 = 샷추가
-2 = 시럽추가
-3 = 사이즈업
-4 = 샷 + 시럽추가
-5 = 샷 + 사이즈업
-6 = 시럽 + 사이즈업
-7 = 샷 + 시럽 + 사이즈업</t>
-  </si>
-  <si>
     <t>추천메뉴</t>
   </si>
   <si>
@@ -353,12 +342,341 @@
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <t>추가</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>옵션을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">선택해주세요
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">1 = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">옵션없음
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">2 = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">샷추가
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">3 = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">시럽추가
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">4 = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">사이즈업
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">5 = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>샷</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">시럽추가
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">6 = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>샷</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">사이즈업
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">7 = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>시럽</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">사이즈업
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">8 = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>샷</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>시럽</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>사이즈업</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -417,6 +735,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -630,7 +956,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -690,6 +1016,9 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -910,7 +1239,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -956,7 +1285,7 @@
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="136.5" thickBot="1">
@@ -969,48 +1298,48 @@
       <c r="C3" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="11" t="s">
-        <v>20</v>
+      <c r="D3" s="21" t="s">
+        <v>45</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F3" s="13"/>
     </row>
     <row r="4" spans="1:6" ht="48" thickBot="1">
       <c r="A4" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="C4" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="D4" s="10" t="s">
         <v>23</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>24</v>
       </c>
       <c r="E4" s="12"/>
       <c r="F4" s="13"/>
     </row>
     <row r="5" spans="1:6" ht="48" thickBot="1">
       <c r="A5" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B5" s="10" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="E5" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="10" t="s">
-        <v>28</v>
-      </c>
       <c r="F5" s="13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="64.5" thickBot="1">
@@ -1019,70 +1348,70 @@
       </c>
       <c r="B6" s="12"/>
       <c r="C6" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="15" t="s">
         <v>29</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>30</v>
       </c>
       <c r="E6" s="12"/>
       <c r="F6" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="294" thickBot="1">
       <c r="A7" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B7" s="10" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="15" t="s">
         <v>33</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>34</v>
       </c>
       <c r="E7" s="12"/>
       <c r="F7" s="13"/>
     </row>
     <row r="8" spans="1:6" ht="138.75" thickBot="1">
       <c r="A8" s="14" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B8" s="12"/>
       <c r="C8" s="10" t="s">
         <v>14</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E8" s="12"/>
       <c r="F8" s="13"/>
     </row>
     <row r="9" spans="1:6" ht="33" thickBot="1">
       <c r="A9" s="14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B9" s="12"/>
       <c r="C9" s="10" t="s">
         <v>15</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E9" s="12"/>
       <c r="F9" s="13"/>
     </row>
     <row r="10" spans="1:6" ht="79.5" thickBot="1">
       <c r="A10" s="14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B10" s="12"/>
       <c r="C10" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="11" t="s">
         <v>40</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>41</v>
       </c>
       <c r="E10" s="12"/>
       <c r="F10" s="13"/>
@@ -1098,7 +1427,7 @@
         <v>12</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E11" s="19" t="s">
         <v>13</v>

--- a/train_tools/qna/Answer_data.xlsx
+++ b/train_tools/qna/Answer_data.xlsx
@@ -94,15 +94,7 @@
     <t>결제, 쿠폰, 포인트</t>
   </si>
   <si>
-    <t>{B_PAY}사용 가능할까요?
-{B_PAY}결제 되나요?
-{B_PAY} 결제</t>
-  </si>
-  <si>
     <t>{B_PAY}에 관한 결제/할인/쿠폰 중 어떤 설명을 원하시나요?</t>
-  </si>
-  <si>
-    <t>[결제/쿠폰/포인트] 설명입니다</t>
   </si>
   <si>
     <t>원두의 원산지가 어떻게 되죠?
@@ -668,6 +660,173 @@
         <scheme val="minor"/>
       </rPr>
       <t>사이즈업</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{B_PAY}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>사용</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>가능할까요</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>?
+{B_PAY}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>결제</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>되나요</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">?
+{B_PAY} </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>결제</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>결제</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>할인</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>쿠폰</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">] </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>설명입니다</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1239,7 +1398,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1285,7 +1444,7 @@
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="136.5" thickBot="1">
@@ -1299,10 +1458,10 @@
         <v>19</v>
       </c>
       <c r="D3" s="21" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F3" s="13"/>
     </row>
@@ -1330,16 +1489,16 @@
         <v>8</v>
       </c>
       <c r="C5" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="10" t="s">
-        <v>26</v>
-      </c>
       <c r="E5" s="10" t="s">
-        <v>27</v>
+        <v>45</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="64.5" thickBot="1">
@@ -1348,70 +1507,70 @@
       </c>
       <c r="B6" s="12"/>
       <c r="C6" s="10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E6" s="12"/>
       <c r="F6" s="13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="294" thickBot="1">
       <c r="A7" s="9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B7" s="10" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E7" s="12"/>
       <c r="F7" s="13"/>
     </row>
     <row r="8" spans="1:6" ht="138.75" thickBot="1">
       <c r="A8" s="14" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B8" s="12"/>
       <c r="C8" s="10" t="s">
         <v>14</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E8" s="12"/>
       <c r="F8" s="13"/>
     </row>
     <row r="9" spans="1:6" ht="33" thickBot="1">
       <c r="A9" s="14" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B9" s="12"/>
       <c r="C9" s="10" t="s">
         <v>15</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E9" s="12"/>
       <c r="F9" s="13"/>
     </row>
     <row r="10" spans="1:6" ht="79.5" thickBot="1">
       <c r="A10" s="14" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B10" s="12"/>
       <c r="C10" s="10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E10" s="12"/>
       <c r="F10" s="13"/>
@@ -1427,7 +1586,7 @@
         <v>12</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E11" s="19" t="s">
         <v>13</v>

--- a/train_tools/qna/Answer_data.xlsx
+++ b/train_tools/qna/Answer_data.xlsx
@@ -336,335 +336,6 @@
   </si>
   <si>
     <r>
-      <t>추가</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>옵션을</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">선택해주세요
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">1 = </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">옵션없음
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">2 = </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">샷추가
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">3 = </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">시럽추가
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">4 = </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">사이즈업
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">5 = </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>샷</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> + </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">시럽추가
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">6 = </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>샷</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> + </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">사이즈업
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">7 = </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>시럽</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> + </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">사이즈업
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">8 = </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>샷</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> + </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>시럽</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> + </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>사이즈업</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t>{B_PAY}</t>
     </r>
     <r>
@@ -828,6 +499,23 @@
       </rPr>
       <t>설명입니다</t>
     </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>다른 상품을 담고싶다면 &lt;장바구니&gt;를 바로결제를 원하시면 &lt;선택완료&gt;를 입력해주세요 
+옵션수정을 원하시면 해당 옵션번호를 다시 입력해주세요
+커피, 라떼만 해당되는 옵션입니다
+음료는 사이즈업만 가능합니다.
+===========================
+1 = 옵션없음
+2 = 샷추가
+3 = 시럽추가
+4 = 사이즈업
+5 = 샷 + 시럽추가
+6 = 샷 + 사이즈업
+7 = 시럽 + 사이즈업
+8 = 샷 + 시럽 + 사이즈업
+===========================</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1398,7 +1086,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1447,7 +1135,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="136.5" thickBot="1">
+    <row r="3" spans="1:6" ht="241.5" thickBot="1">
       <c r="A3" s="9" t="s">
         <v>18</v>
       </c>
@@ -1458,7 +1146,7 @@
         <v>19</v>
       </c>
       <c r="D3" s="21" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E3" s="10" t="s">
         <v>42</v>
@@ -1489,13 +1177,13 @@
         <v>8</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D5" s="10" t="s">
         <v>25</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F5" s="13" t="s">
         <v>41</v>

--- a/train_tools/qna/Answer_data.xlsx
+++ b/train_tools/qna/Answer_data.xlsx
@@ -160,9 +160,6 @@
     <t>테이크 아웃 설명입니다</t>
   </si>
   <si>
-    <t>해당 {B_FOOD}의 주문번호를 입력해주세요</t>
-  </si>
-  <si>
     <t>PrintedMenus.png</t>
   </si>
   <si>
@@ -516,6 +513,83 @@
 7 = 시럽 + 사이즈업
 8 = 샷 + 시럽 + 사이즈업
 ===========================</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>해당</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>상품의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>주문번호를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>입력해주세요</t>
+    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -856,9 +930,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -866,6 +937,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1085,8 +1159,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1132,7 +1206,7 @@
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="241.5" thickBot="1">
@@ -1145,11 +1219,11 @@
       <c r="C3" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="21" t="s">
-        <v>45</v>
+      <c r="D3" s="20" t="s">
+        <v>44</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F3" s="13"/>
     </row>
@@ -1177,16 +1251,16 @@
         <v>8</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D5" s="10" t="s">
         <v>25</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="64.5" thickBot="1">
@@ -1273,13 +1347,13 @@
       <c r="C11" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="E11" s="19" t="s">
+      <c r="D11" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="F11" s="20"/>
+      <c r="F11" s="19"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/train_tools/qna/Answer_data.xlsx
+++ b/train_tools/qna/Answer_data.xlsx
@@ -88,13 +88,7 @@
 메뉴 추천부탁드립니다.</t>
   </si>
   <si>
-    <t>{B_RECOMMEND}메뉴는 아래와 같습니다</t>
-  </si>
-  <si>
     <t>결제, 쿠폰, 포인트</t>
-  </si>
-  <si>
-    <t>{B_PAY}에 관한 결제/할인/쿠폰 중 어떤 설명을 원하시나요?</t>
   </si>
   <si>
     <t>원두의 원산지가 어떻게 되죠?
@@ -115,31 +109,7 @@
 {B_FACILITY} 어디에요?, {B_FACILITY} 돼?</t>
   </si>
   <si>
-    <t>시설 안내입니다
-저희 카페 화장실은 정문 우측에 있는 계단으로 올라가서 복도 끝에 있습니다.
-비밀번호: 123456
-카페 와이파이
-wifi: cafe_fg_wifi
-비밀번호: 0123456789
-매장정보
-이름: 카페 FG
-주소: 736-7 역삼동, 강남구, 서울
-전화번호: 02-538-0000
-대표: FG
-오픈 날짜: 2022년 6월 1일</t>
-  </si>
-  <si>
     <t>영업시간</t>
-  </si>
-  <si>
-    <t>저희 카페 영업시간은
-월 08:00 - 21:00
-화 08:00 - 21:40
-수 08:00 - 21:40
-목 08:00 - 21:40
-금 08:00 - 21:40
-토 08:00 - 22:00
-일 08:00 - 22:00</t>
   </si>
   <si>
     <t>텀블러</t>
@@ -499,41 +469,119 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>다른 상품을 담고싶다면 &lt;장바구니&gt;를 바로결제를 원하시면 &lt;선택완료&gt;를 입력해주세요 
-옵션수정을 원하시면 해당 옵션번호를 다시 입력해주세요
-커피, 라떼만 해당되는 옵션입니다
-음료는 사이즈업만 가능합니다.
-===========================
-1 = 옵션없음
-2 = 샷추가
-3 = 시럽추가
-4 = 사이즈업
-5 = 샷 + 시럽추가
-6 = 샷 + 사이즈업
-7 = 시럽 + 사이즈업
-8 = 샷 + 시럽 + 사이즈업
-===========================</t>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>해당</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>상품의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>주문번호를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>입력해주세요</t>
+    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>해당</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
+    <t>다른 상품을 담고싶다면 &lt;장바구니&gt;를&lt;br&gt; 바로결제를 원하시면 &lt;선택완료&gt;를 입력해주세요&lt;br&gt;
+옵션수정을 원하시면 해당 옵션번호를 다시 입력해주세요&lt;br&gt;
+커피, 라떼만 해당되는 옵션입니다&lt;br&gt;
+음료는 사이즈업만 가능합니다.&lt;br&gt;
+===========================&lt;br&gt;
+1 = 옵션없음&lt;br&gt;
+2 = 샷추가&lt;br&gt;
+3 = 시럽추가&lt;br&gt;
+4 = 사이즈업&lt;br&gt;
+5 = 샷 + 시럽추가&lt;br&gt;
+6 = 샷 + 사이즈업&lt;br&gt;
+7 = 시럽 + 사이즈업&lt;br&gt;
+8 = 샷 + 시럽 + 사이즈업&lt;br&gt;
+===========================&lt;br&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{B_RECOMMEND}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>메뉴는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -541,20 +589,18 @@
       <rPr>
         <sz val="12"/>
         <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>상품의</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>아래와</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -562,20 +608,34 @@
       <rPr>
         <sz val="12"/>
         <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>주문번호를</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>같습니다</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{B_PAY}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -583,13 +643,180 @@
       <rPr>
         <sz val="12"/>
         <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>입력해주세요</t>
-    </r>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>관한</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>결제</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>할인</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>쿠폰</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>중</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">&lt;br&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>어떤</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>설명을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>원하시나요</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>?</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>시설 안내입니다&lt;br&gt;&lt;br&gt;
+저희 카페 화장실은 정문 우측에 있는 계단으로 올라가서 복도 끝에 있습니다.&lt;br&gt;
+비밀번호: 123456&lt;br&gt;&lt;br&gt;
+카페 와이파이&lt;br&gt;
+wifi: cafe_fg_wifi&lt;br&gt;
+비밀번호: 0123456789&lt;br&gt;&lt;br&gt;
+매장정보&lt;br&gt;
+이름: 카페 FG&lt;br&gt;
+주소: 736-7 역삼동, 강남구, 서울&lt;br&gt;
+전화번호: 02-538-0000&lt;br&gt;
+대표: FG&lt;br&gt;&lt;br&gt;
+오픈 날짜: 2022년 6월 1일</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>저희 카페 영업시간은&lt;br&gt;
+월 08:00 - 21:00&lt;br&gt;
+화 08:00 - 21:40&lt;br&gt;
+수 08:00 - 21:40&lt;br&gt;
+목 08:00 - 21:40&lt;br&gt;
+금 08:00 - 21:40&lt;br&gt;
+토 08:00 - 22:00&lt;br&gt;
+일 08:00 - 22:00</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1159,8 +1386,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1206,7 +1433,7 @@
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="8" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="241.5" thickBot="1">
@@ -1220,10 +1447,10 @@
         <v>19</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="F3" s="13"/>
     </row>
@@ -1238,29 +1465,29 @@
         <v>22</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="E4" s="12"/>
       <c r="F4" s="13"/>
     </row>
     <row r="5" spans="1:6" ht="48" thickBot="1">
       <c r="A5" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B5" s="10" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="64.5" thickBot="1">
@@ -1269,70 +1496,70 @@
       </c>
       <c r="B6" s="12"/>
       <c r="C6" s="10" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E6" s="12"/>
       <c r="F6" s="13" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="294" thickBot="1">
       <c r="A7" s="9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B7" s="10" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="E7" s="12"/>
       <c r="F7" s="13"/>
     </row>
     <row r="8" spans="1:6" ht="138.75" thickBot="1">
       <c r="A8" s="14" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B8" s="12"/>
       <c r="C8" s="10" t="s">
         <v>14</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="E8" s="12"/>
       <c r="F8" s="13"/>
     </row>
     <row r="9" spans="1:6" ht="33" thickBot="1">
       <c r="A9" s="14" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B9" s="12"/>
       <c r="C9" s="10" t="s">
         <v>15</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="E9" s="12"/>
       <c r="F9" s="13"/>
     </row>
     <row r="10" spans="1:6" ht="79.5" thickBot="1">
       <c r="A10" s="14" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B10" s="12"/>
       <c r="C10" s="10" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E10" s="12"/>
       <c r="F10" s="13"/>
@@ -1348,7 +1575,7 @@
         <v>12</v>
       </c>
       <c r="D11" s="21" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E11" s="18" t="s">
         <v>13</v>

--- a/train_tools/qna/Answer_data.xlsx
+++ b/train_tools/qna/Answer_data.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25225"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\skql2\Documents\GitHub\Chatbot_FG\train_tools\qna\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56C66021-988F-4F6D-8054-E1D515A299E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2955" yWindow="285" windowWidth="20505" windowHeight="11130"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Answer_data" sheetId="2" r:id="rId1"/>
@@ -88,13 +94,7 @@
 메뉴 추천부탁드립니다.</t>
   </si>
   <si>
-    <t>{B_RECOMMEND}메뉴는 아래와 같습니다</t>
-  </si>
-  <si>
     <t>결제, 쿠폰, 포인트</t>
-  </si>
-  <si>
-    <t>{B_PAY}에 관한 결제/할인/쿠폰 중 어떤 설명을 원하시나요?</t>
   </si>
   <si>
     <t>원두의 원산지가 어떻게 되죠?
@@ -115,37 +115,10 @@
 {B_FACILITY} 어디에요?, {B_FACILITY} 돼?</t>
   </si>
   <si>
-    <t>시설 안내입니다
-저희 카페 화장실은 정문 우측에 있는 계단으로 올라가서 복도 끝에 있습니다.
-비밀번호: 123456
-카페 와이파이
-wifi: cafe_fg_wifi
-비밀번호: 0123456789
-매장정보
-이름: 카페 FG
-주소: 736-7 역삼동, 강남구, 서울
-전화번호: 02-538-0000
-대표: FG
-오픈 날짜: 2022년 6월 1일</t>
-  </si>
-  <si>
     <t>영업시간</t>
   </si>
   <si>
-    <t>저희 카페 영업시간은
-월 08:00 - 21:00
-화 08:00 - 21:40
-수 08:00 - 21:40
-목 08:00 - 21:40
-금 08:00 - 21:40
-토 08:00 - 22:00
-일 08:00 - 22:00</t>
-  </si>
-  <si>
     <t>텀블러</t>
-  </si>
-  <si>
-    <t>텀블러 규정 입니다</t>
   </si>
   <si>
     <t>테이크아웃</t>
@@ -157,9 +130,6 @@
 캐리어에 싸줘</t>
   </si>
   <si>
-    <t>테이크 아웃 설명입니다</t>
-  </si>
-  <si>
     <t>PrintedMenus.png</t>
   </si>
   <si>
@@ -499,96 +469,898 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>다른 상품을 담고싶다면 &lt;장바구니&gt;를 바로결제를 원하시면 &lt;선택완료&gt;를 입력해주세요 
-옵션수정을 원하시면 해당 옵션번호를 다시 입력해주세요
-커피, 라떼만 해당되는 옵션입니다
-음료는 사이즈업만 가능합니다.
-===========================
-1 = 옵션없음
-2 = 샷추가
-3 = 시럽추가
-4 = 사이즈업
-5 = 샷 + 시럽추가
-6 = 샷 + 사이즈업
-7 = 시럽 + 사이즈업
-8 = 샷 + 시럽 + 사이즈업
-===========================</t>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>해당</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>상품의</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>주문번호를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>입력해주세요</t>
+    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>해당</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>상품의</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>주문번호를</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="129"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>입력해주세요</t>
+    <t>다른 상품을 담고싶다면 &lt;장바구니&gt;를&lt;br&gt; 바로결제를 원하시면 &lt;선택완료&gt;를 입력해주세요&lt;br&gt;
+옵션수정을 원하시면 해당 옵션번호를 다시 입력해주세요&lt;br&gt;
+커피, 라떼만 해당되는 옵션입니다&lt;br&gt;
+음료는 사이즈업만 가능합니다.&lt;br&gt;
+===========================&lt;br&gt;
+1 = 옵션없음&lt;br&gt;
+2 = 샷추가&lt;br&gt;
+3 = 시럽추가&lt;br&gt;
+4 = 사이즈업&lt;br&gt;
+5 = 샷 + 시럽추가&lt;br&gt;
+6 = 샷 + 사이즈업&lt;br&gt;
+7 = 시럽 + 사이즈업&lt;br&gt;
+8 = 샷 + 시럽 + 사이즈업&lt;br&gt;
+===========================&lt;br&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{B_RECOMMEND}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>메뉴는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>아래와</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>같습니다</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{B_PAY}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>관한</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>결제</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>할인</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>쿠폰</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>중</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">&lt;br&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>어떤</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>설명을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>원하시나요</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>?</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>시설 안내입니다&lt;br&gt;&lt;br&gt;
+저희 카페 화장실은 정문 우측에 있는 계단으로 올라가서 복도 끝에 있습니다.&lt;br&gt;
+비밀번호: 123456&lt;br&gt;&lt;br&gt;
+카페 와이파이&lt;br&gt;
+wifi: cafe_fg_wifi&lt;br&gt;
+비밀번호: 0123456789&lt;br&gt;&lt;br&gt;
+매장정보&lt;br&gt;
+이름: 카페 FG&lt;br&gt;
+주소: 736-7 역삼동, 강남구, 서울&lt;br&gt;
+전화번호: 02-538-0000&lt;br&gt;
+대표: FG&lt;br&gt;&lt;br&gt;
+오픈 날짜: 2022년 6월 1일</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>저희 카페 영업시간은&lt;br&gt;
+월 08:00 - 21:00&lt;br&gt;
+화 08:00 - 21:40&lt;br&gt;
+수 08:00 - 21:40&lt;br&gt;
+목 08:00 - 21:40&lt;br&gt;
+금 08:00 - 21:40&lt;br&gt;
+토 08:00 - 22:00&lt;br&gt;
+일 08:00 - 22:00</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>※ 텀블러에 관한 매장규정입니다.&lt;br&gt;&lt;br&gt;
+1. 본 매장에서는 텀블러 사용을 권장하고있습니다.&lt;br&gt;
+2. 본 매장에서 일회용 컵 대신 텀블러를 사용 시 전 메뉴에 대해서 5%의 할인이 적용됩니다.&lt;br&gt;
+3. 텀블러 사용 시 사전 세척관련해서는 본 매장에서는 관여하지 않으며, 사전에 세척한 후 사용하기시 바랍니다.&lt;br&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>※</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>테이크아웃</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>관련</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>매장규정입니다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">.&lt;br&gt;&lt;br&gt;
+1. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>테이크</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>아웃으로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>주문</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>시에는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>매장에서</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>취식은</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>최대</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> 5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>분까지만</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>가능합니다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">.&lt;br&gt;
+2. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>개인텀블러를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>사용하시는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>경우</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>주문시에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>직원에게</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>말씀해주시기</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>바랍니다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">.&lt;br&gt;
+3. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>챗봇을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>활용하여</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>비대면</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>주문</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>테이크아웃을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>하실</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>있습니다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -596,8 +1368,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="14">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -664,6 +1436,33 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Malgun Gothic"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -877,7 +1676,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -909,9 +1708,6 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -940,6 +1736,10 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1156,21 +1956,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="23.42578125" customWidth="1"/>
-    <col min="3" max="3" width="31.5703125" customWidth="1"/>
-    <col min="4" max="4" width="68.85546875" customWidth="1"/>
-    <col min="5" max="5" width="83.7109375" customWidth="1"/>
-    <col min="6" max="6" width="46.85546875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" style="21" customWidth="1"/>
+    <col min="2" max="2" width="23.42578125" style="21" customWidth="1"/>
+    <col min="3" max="3" width="31.5703125" style="21" customWidth="1"/>
+    <col min="4" max="4" width="68.85546875" style="21" customWidth="1"/>
+    <col min="5" max="5" width="83.7109375" style="21" customWidth="1"/>
+    <col min="6" max="6" width="46.85546875" style="21" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="21"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="16.5" thickBot="1">
@@ -1206,7 +2007,7 @@
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="8" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="241.5" thickBot="1">
@@ -1219,13 +2020,13 @@
       <c r="C3" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="20" t="s">
-        <v>44</v>
+      <c r="D3" s="19" t="s">
+        <v>39</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="F3" s="13"/>
+        <v>35</v>
+      </c>
+      <c r="F3" s="12"/>
     </row>
     <row r="4" spans="1:6" ht="48" thickBot="1">
       <c r="A4" s="9" t="s">
@@ -1238,122 +2039,122 @@
         <v>22</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" s="12"/>
-      <c r="F4" s="13"/>
+        <v>40</v>
+      </c>
+      <c r="E4" s="11"/>
+      <c r="F4" s="12"/>
     </row>
     <row r="5" spans="1:6" ht="48" thickBot="1">
       <c r="A5" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B5" s="10" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="F5" s="13" t="s">
-        <v>40</v>
+        <v>37</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="64.5" thickBot="1">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="12"/>
+      <c r="B6" s="11"/>
       <c r="C6" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="11"/>
+      <c r="F6" s="12" t="s">
         <v>26</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" s="12"/>
-      <c r="F6" s="13" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="294" thickBot="1">
       <c r="A7" s="9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B7" s="10" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="E7" s="12"/>
-      <c r="F7" s="13"/>
+        <v>28</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" s="11"/>
+      <c r="F7" s="12"/>
     </row>
     <row r="8" spans="1:6" ht="138.75" thickBot="1">
-      <c r="A8" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="B8" s="12"/>
+      <c r="A8" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="11"/>
       <c r="C8" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="E8" s="12"/>
-      <c r="F8" s="13"/>
+      <c r="D8" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" s="11"/>
+      <c r="F8" s="12"/>
     </row>
-    <row r="9" spans="1:6" ht="33" thickBot="1">
-      <c r="A9" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="B9" s="12"/>
+    <row r="9" spans="1:6" ht="104.25" thickBot="1">
+      <c r="A9" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="11"/>
       <c r="C9" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="E9" s="12"/>
-      <c r="F9" s="13"/>
+      <c r="D9" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" s="11"/>
+      <c r="F9" s="12"/>
     </row>
-    <row r="10" spans="1:6" ht="79.5" thickBot="1">
-      <c r="A10" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="B10" s="12"/>
+    <row r="10" spans="1:6" ht="104.25" thickBot="1">
+      <c r="A10" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="11"/>
       <c r="C10" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="E10" s="12"/>
-      <c r="F10" s="13"/>
+        <v>32</v>
+      </c>
+      <c r="D10" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" s="11"/>
+      <c r="F10" s="12"/>
     </row>
     <row r="11" spans="1:6" ht="16.5" thickBot="1">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="17" t="s">
+      <c r="C11" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="E11" s="18" t="s">
+      <c r="D11" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="F11" s="19"/>
+      <c r="F11" s="18"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/train_tools/qna/Answer_data.xlsx
+++ b/train_tools/qna/Answer_data.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25225"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\skql2\Documents\GitHub\Chatbot_FG\train_tools\qna\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56C66021-988F-4F6D-8054-E1D515A299E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Answer_data" sheetId="2" r:id="rId1"/>
@@ -809,7 +803,552 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>저희 카페 영업시간은&lt;br&gt;
+    <t>※ 텀블러에 관한 매장규정입니다.&lt;br&gt;&lt;br&gt;
+1. 본 매장에서는 텀블러 사용을 권장하고있습니다.&lt;br&gt;
+2. 본 매장에서 일회용 컵 대신 텀블러를 사용 시 전 메뉴에 대해서 5%의 할인이 적용됩니다.&lt;br&gt;
+3. 텀블러 사용 시 사전 세척관련해서는 본 매장에서는 관여하지 않으며, 사전에 세척한 후 사용하기시 바랍니다.&lt;br&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>※</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>테이크아웃</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>관련</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>매장규정입니다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">.&lt;br&gt;&lt;br&gt;
+1. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>테이크</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>아웃으로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>주문</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>시에는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>매장에서</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>취식은</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>최대</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> 5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>분까지만</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>가능합니다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">.&lt;br&gt;
+2. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>개인텀블러를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>사용하시는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>경우</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>주문시에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>직원에게</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>말씀해주시기</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>바랍니다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">.&lt;br&gt;
+3. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>챗봇을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>활용하여</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>비대면</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>주문</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>테이크아웃을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>하실</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>있습니다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>카페 영업시간&lt;br&gt;&lt;br&gt;
 월 08:00 - 21:00&lt;br&gt;
 화 08:00 - 21:40&lt;br&gt;
 수 08:00 - 21:40&lt;br&gt;
@@ -819,556 +1358,11 @@
 일 08:00 - 22:00</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
-  <si>
-    <t>※ 텀블러에 관한 매장규정입니다.&lt;br&gt;&lt;br&gt;
-1. 본 매장에서는 텀블러 사용을 권장하고있습니다.&lt;br&gt;
-2. 본 매장에서 일회용 컵 대신 텀블러를 사용 시 전 메뉴에 대해서 5%의 할인이 적용됩니다.&lt;br&gt;
-3. 텀블러 사용 시 사전 세척관련해서는 본 매장에서는 관여하지 않으며, 사전에 세척한 후 사용하기시 바랍니다.&lt;br&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>※</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>테이크아웃</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>관련</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>매장규정입니다</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">.&lt;br&gt;&lt;br&gt;
-1. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>테이크</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>아웃으로</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>주문</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>시에는</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>매장에서</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>취식은</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>최대</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> 5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>분까지만</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>가능합니다</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">.&lt;br&gt;
-2. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>개인텀블러를</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>사용하시는</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>경우</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>주문시에</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>직원에게</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>말씀해주시기</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>바랍니다</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">.&lt;br&gt;
-3. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>챗봇을</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>활용하여</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>비대면</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>주문</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>테이크아웃을</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>하실</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>수</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>있습니다</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="14">
     <font>
       <sz val="10"/>
@@ -1956,11 +1950,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2105,7 +2099,7 @@
         <v>14</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E8" s="11"/>
       <c r="F8" s="12"/>
@@ -2119,7 +2113,7 @@
         <v>15</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E9" s="11"/>
       <c r="F9" s="12"/>
@@ -2133,7 +2127,7 @@
         <v>32</v>
       </c>
       <c r="D10" s="22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E10" s="11"/>
       <c r="F10" s="12"/>

--- a/train_tools/qna/Answer_data.xlsx
+++ b/train_tools/qna/Answer_data.xlsx
@@ -99,9 +99,6 @@
     <t>커피 원두의 원산지 정보입니다.</t>
   </si>
   <si>
-    <t>wondu.JPG</t>
-  </si>
-  <si>
     <t>시설, 위치</t>
   </si>
   <si>
@@ -1356,6 +1353,10 @@
 금 08:00 - 21:40&lt;br&gt;
 토 08:00 - 22:00&lt;br&gt;
 일 08:00 - 22:00</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Antigua.jpg, Bebeka.jpg, kenyaAA.jpg</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1953,8 +1954,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="E4" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2001,7 +2002,7 @@
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="241.5" thickBot="1">
@@ -2015,10 +2016,10 @@
         <v>19</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F3" s="12"/>
     </row>
@@ -2033,7 +2034,7 @@
         <v>22</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E4" s="11"/>
       <c r="F4" s="12"/>
@@ -2046,16 +2047,16 @@
         <v>8</v>
       </c>
       <c r="C5" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="D5" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>37</v>
-      </c>
       <c r="F5" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="64.5" thickBot="1">
@@ -2071,63 +2072,63 @@
       </c>
       <c r="E6" s="11"/>
       <c r="F6" s="12" t="s">
-        <v>26</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="294" thickBot="1">
       <c r="A7" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B7" s="10" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E7" s="11"/>
       <c r="F7" s="12"/>
     </row>
     <row r="8" spans="1:6" ht="138.75" thickBot="1">
       <c r="A8" s="13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B8" s="11"/>
       <c r="C8" s="10" t="s">
         <v>14</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E8" s="11"/>
       <c r="F8" s="12"/>
     </row>
     <row r="9" spans="1:6" ht="104.25" thickBot="1">
       <c r="A9" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B9" s="11"/>
       <c r="C9" s="10" t="s">
         <v>15</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E9" s="11"/>
       <c r="F9" s="12"/>
     </row>
     <row r="10" spans="1:6" ht="104.25" thickBot="1">
       <c r="A10" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B10" s="11"/>
       <c r="C10" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D10" s="22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E10" s="11"/>
       <c r="F10" s="12"/>
@@ -2143,7 +2144,7 @@
         <v>12</v>
       </c>
       <c r="D11" s="20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E11" s="17" t="s">
         <v>13</v>

--- a/train_tools/qna/Answer_data.xlsx
+++ b/train_tools/qna/Answer_data.xlsx
@@ -96,9 +96,6 @@
 원두, 원산지 어디야? 원두 어디꺼야?</t>
   </si>
   <si>
-    <t>커피 원두의 원산지 정보입니다.</t>
-  </si>
-  <si>
     <t>시설, 위치</t>
   </si>
   <si>
@@ -537,251 +534,617 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>다른 상품을 담고싶다면 &lt;장바구니&gt;를&lt;br&gt; 바로결제를 원하시면 &lt;선택완료&gt;를 입력해주세요&lt;br&gt;
-옵션수정을 원하시면 해당 옵션번호를 다시 입력해주세요&lt;br&gt;
-커피, 라떼만 해당되는 옵션입니다&lt;br&gt;
-음료는 사이즈업만 가능합니다.&lt;br&gt;
-===========================&lt;br&gt;
-1 = 옵션없음&lt;br&gt;
-2 = 샷추가&lt;br&gt;
-3 = 시럽추가&lt;br&gt;
-4 = 사이즈업&lt;br&gt;
-5 = 샷 + 시럽추가&lt;br&gt;
-6 = 샷 + 사이즈업&lt;br&gt;
-7 = 시럽 + 사이즈업&lt;br&gt;
-8 = 샷 + 시럽 + 사이즈업&lt;br&gt;
-===========================&lt;br&gt;</t>
+    <r>
+      <t>{B_RECOMMEND}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>메뉴는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>아래와</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>같습니다</t>
+    </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>{B_RECOMMEND}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>메뉴는</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>아래와</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>같습니다</t>
-    </r>
+    <t>※ 텀블러에 관한 매장규정입니다.&lt;br&gt;&lt;br&gt;
+1. 본 매장에서는 텀블러 사용을 권장하고있습니다.&lt;br&gt;
+2. 본 매장에서 일회용 컵 대신 텀블러를 사용 시 전 메뉴에 대해서 5%의 할인이 적용됩니다.&lt;br&gt;
+3. 텀블러 사용 시 사전 세척관련해서는 본 매장에서는 관여하지 않으며, 사전에 세척한 후 사용하기시 바랍니다.&lt;br&gt;</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
-      <t>{B_PAY}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>에</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>관한</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>결제</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>할인</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>쿠폰</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>중</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">&lt;br&gt; </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>어떤</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>설명을</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="돋움"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>원하시나요</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>?</t>
-    </r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>※</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>테이크아웃</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>관련</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>매장규정입니다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">.&lt;br&gt;&lt;br&gt;
+1. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>테이크</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>아웃으로</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>주문</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>시에는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>매장에서</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>취식은</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>최대</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> 5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>분까지만</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>가능합니다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">.&lt;br&gt;
+2. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>개인텀블러를</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>사용하시는</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>경우</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>주문시에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>직원에게</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>말씀해주시기</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>바랍니다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">.&lt;br&gt;
+3. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>챗봇을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>활용하여</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>비대면</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>주문</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>테이크아웃을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>하실</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>수</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Malgun Gothic"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>있습니다</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>카페 영업시간&lt;br&gt;&lt;br&gt;
+월 08:00 - 21:00&lt;br&gt;
+화 08:00 - 21:40&lt;br&gt;
+수 08:00 - 21:40&lt;br&gt;
+목 08:00 - 21:40&lt;br&gt;
+금 08:00 - 21:40&lt;br&gt;
+토 08:00 - 22:00&lt;br&gt;
+일 08:00 - 22:00</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Antigua.jpg, Bebeka.jpg, kenyaAA.jpg</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -800,563 +1163,201 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>※ 텀블러에 관한 매장규정입니다.&lt;br&gt;&lt;br&gt;
-1. 본 매장에서는 텀블러 사용을 권장하고있습니다.&lt;br&gt;
-2. 본 매장에서 일회용 컵 대신 텀블러를 사용 시 전 메뉴에 대해서 5%의 할인이 적용됩니다.&lt;br&gt;
-3. 텀블러 사용 시 사전 세척관련해서는 본 매장에서는 관여하지 않으며, 사전에 세척한 후 사용하기시 바랍니다.&lt;br&gt;</t>
+    <t>커피 원두의 원산지 정보입니다.</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="맑은 고딕"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>※</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>테이크아웃</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>관련</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>매장규정입니다</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">.&lt;br&gt;&lt;br&gt;
-1. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>테이크</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>아웃으로</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>주문</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>시에는</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>매장에서</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>취식은</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>최대</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> 5</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>분까지만</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>가능합니다</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">.&lt;br&gt;
-2. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>개인텀블러를</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>사용하시는</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>경우</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>주문시에</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>직원에게</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>말씀해주시기</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>바랍니다</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve">.&lt;br&gt;
-3. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>챗봇을</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>활용하여</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>비대면</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>주문</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>테이크아웃을</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>하실</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>수</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Malgun Gothic"/>
-        <family val="3"/>
-        <charset val="129"/>
-      </rPr>
-      <t>있습니다</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-      </rPr>
-      <t>.</t>
+      <t>{B_PAY}</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>에</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>관한</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>결제</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>할인</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>쿠폰</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>중</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">&lt;br&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>어떤</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>설명을</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="돋움"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>원하시나요</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>?</t>
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>카페 영업시간&lt;br&gt;&lt;br&gt;
-월 08:00 - 21:00&lt;br&gt;
-화 08:00 - 21:40&lt;br&gt;
-수 08:00 - 21:40&lt;br&gt;
-목 08:00 - 21:40&lt;br&gt;
-금 08:00 - 21:40&lt;br&gt;
-토 08:00 - 22:00&lt;br&gt;
-일 08:00 - 22:00</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Antigua.jpg, Bebeka.jpg, kenyaAA.jpg</t>
+    <t>다른 상품을 담고싶다면 &lt;장바구니&gt;를&lt;br&gt; 바로결제를 원하시면 &lt;선택완료&gt;를 입력해주세요&lt;br&gt;
+옵션수정을 원하시면 해당 옵션번호를 다시 입력해주세요&lt;br&gt;
+커피, 라떼만 해당되는 옵션입니다&lt;br&gt;
+음료는 사이즈업만 가능합니다.&lt;br&gt;
+===========================&lt;br&gt;
+1 = 옵션없음 (+0원)&lt;br&gt;
+2 = 샷추가 (+500원)&lt;br&gt;
+3 = 시럽추가 (+300원)&lt;br&gt;
+4 = 사이즈업 (+700원)&lt;br&gt;
+5 = 샷 + 시럽추가 (+800원)&lt;br&gt;
+6 = 샷 + 사이즈업 (+1200원)&lt;br&gt;
+7 = 시럽 + 사이즈업 (+1000원)&lt;br&gt;
+8 = 샷 + 시럽 + 사이즈업 (+1500원)&lt;br&gt;
+===========================&lt;br&gt;</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1954,8 +1955,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E4" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2002,7 +2003,7 @@
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="241.5" thickBot="1">
@@ -2016,10 +2017,10 @@
         <v>19</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F3" s="12"/>
     </row>
@@ -2034,7 +2035,7 @@
         <v>22</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E4" s="11"/>
       <c r="F4" s="12"/>
@@ -2047,16 +2048,16 @@
         <v>8</v>
       </c>
       <c r="C5" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="E5" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>36</v>
-      </c>
       <c r="F5" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="64.5" thickBot="1">
@@ -2068,67 +2069,67 @@
         <v>24</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="E6" s="11"/>
       <c r="F6" s="12" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="294" thickBot="1">
       <c r="A7" s="9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B7" s="10" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E7" s="11"/>
       <c r="F7" s="12"/>
     </row>
     <row r="8" spans="1:6" ht="138.75" thickBot="1">
       <c r="A8" s="13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B8" s="11"/>
       <c r="C8" s="10" t="s">
         <v>14</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E8" s="11"/>
       <c r="F8" s="12"/>
     </row>
     <row r="9" spans="1:6" ht="104.25" thickBot="1">
       <c r="A9" s="13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B9" s="11"/>
       <c r="C9" s="10" t="s">
         <v>15</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E9" s="11"/>
       <c r="F9" s="12"/>
     </row>
     <row r="10" spans="1:6" ht="104.25" thickBot="1">
       <c r="A10" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B10" s="11"/>
       <c r="C10" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D10" s="22" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E10" s="11"/>
       <c r="F10" s="12"/>
@@ -2144,7 +2145,7 @@
         <v>12</v>
       </c>
       <c r="D11" s="20" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E11" s="17" t="s">
         <v>13</v>

--- a/train_tools/qna/Answer_data.xlsx
+++ b/train_tools/qna/Answer_data.xlsx
@@ -77,9 +77,6 @@
 {B_FOOD} 주문, {B_FOOD} 줘</t>
   </si>
   <si>
-    <t>추천메뉴</t>
-  </si>
-  <si>
     <t>{B_RECOMMEND}</t>
   </si>
   <si>
@@ -1358,6 +1355,10 @@
 7 = 시럽 + 사이즈업 (+1000원)&lt;br&gt;
 8 = 샷 + 시럽 + 사이즈업 (+1500원)&lt;br&gt;
 ===========================&lt;br&gt;</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>추천메뉴 검색</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1672,7 +1673,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1736,6 +1737,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1956,7 +1960,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2003,7 +2007,7 @@
       </c>
       <c r="E2" s="5"/>
       <c r="F2" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="241.5" thickBot="1">
@@ -2017,47 +2021,47 @@
         <v>19</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F3" s="12"/>
     </row>
     <row r="4" spans="1:6" ht="48" thickBot="1">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="C4" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="10" t="s">
-        <v>22</v>
-      </c>
       <c r="D4" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E4" s="11"/>
       <c r="F4" s="12"/>
     </row>
     <row r="5" spans="1:6" ht="48" thickBot="1">
       <c r="A5" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B5" s="10" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>35</v>
-      </c>
       <c r="F5" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="64.5" thickBot="1">
@@ -2066,70 +2070,70 @@
       </c>
       <c r="B6" s="11"/>
       <c r="C6" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E6" s="11"/>
       <c r="F6" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="294" thickBot="1">
       <c r="A7" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B7" s="10" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E7" s="11"/>
       <c r="F7" s="12"/>
     </row>
     <row r="8" spans="1:6" ht="138.75" thickBot="1">
       <c r="A8" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B8" s="11"/>
       <c r="C8" s="10" t="s">
         <v>14</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E8" s="11"/>
       <c r="F8" s="12"/>
     </row>
     <row r="9" spans="1:6" ht="104.25" thickBot="1">
       <c r="A9" s="13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B9" s="11"/>
       <c r="C9" s="10" t="s">
         <v>15</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E9" s="11"/>
       <c r="F9" s="12"/>
     </row>
     <row r="10" spans="1:6" ht="104.25" thickBot="1">
       <c r="A10" s="13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B10" s="11"/>
       <c r="C10" s="10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D10" s="22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E10" s="11"/>
       <c r="F10" s="12"/>
@@ -2145,7 +2149,7 @@
         <v>12</v>
       </c>
       <c r="D11" s="20" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E11" s="17" t="s">
         <v>13</v>
